--- a/Progress.xlsx
+++ b/Progress.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="57">
   <si>
     <t>PROGRESS</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>Move to GitHub</t>
+  </si>
+  <si>
+    <t>Summer 2013</t>
   </si>
 </sst>
 </file>
@@ -289,17 +292,7 @@
     <cellStyle name="60% - Accent6" xfId="2" builtinId="52"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color theme="0"/>
@@ -317,46 +310,6 @@
       <fill>
         <patternFill>
           <bgColor theme="3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -658,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -703,6 +656,12 @@
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -715,6 +674,12 @@
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -727,6 +692,12 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="D4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -739,6 +710,12 @@
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="D5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -750,6 +727,12 @@
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -1257,18 +1240,18 @@
     <sortCondition ref="C2:C34"/>
   </sortState>
   <conditionalFormatting sqref="B118:C1048576 C1:C117">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"todo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"makai"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"nate"</formula>
     </cfRule>
   </conditionalFormatting>
